--- a/biology/Zoologie/Gnathothlibus_meeki/Gnathothlibus_meeki.xlsx
+++ b/biology/Zoologie/Gnathothlibus_meeki/Gnathothlibus_meeki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathothlibus meeki est une espèce de papillons de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Gnathothlibus . 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coloration de base varie beaucoup. Il existe des spécimens très sombres et la couleur de la face dorsale de l'aile antérieure peut varier du brun au vert olive.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 L’espèce se rencontre en Papouasie-Nouvelle-Guinée surtout dans les zones montagneuses.
@@ -574,11 +590,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Gnathothlibus meeki a été décrite par les entomologistes Rothschild &amp; Jordan en 1907, sous le nom initial de Chromis meeki.
-Synonymie
-Chromis meeki Rothschild &amp; Jordan, 1907 Protonyme</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gnathothlibus meeki a été décrite par les entomologistes Rothschild &amp; Jordan en 1907, sous le nom initial de Chromis meeki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gnathothlibus_meeki</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnathothlibus_meeki</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chromis meeki Rothschild &amp; Jordan, 1907 Protonyme</t>
         </is>
       </c>
     </row>
